--- a/SampleApp/模版/03读取excel内容/Sample12.xlsx
+++ b/SampleApp/模版/03读取excel内容/Sample12.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE10912-D34A-4419-8F9D-DD1C5171D1C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="4665" windowWidth="27330" windowHeight="15690"/>
+    <workbookView xWindow="8910" yWindow="1305" windowWidth="14445" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,13 +46,21 @@
   </si>
   <si>
     <t>请假次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,7 +241,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -300,6 +309,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -335,6 +361,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,29 +553,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="18.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -540,13 +583,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -554,37 +600,46 @@
         <v>1</v>
       </c>
       <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>9</v>
       </c>
     </row>
